--- a/ProcessedData/conf_rbf_SVM_video_1.xlsx
+++ b/ProcessedData/conf_rbf_SVM_video_1.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0355396183529545</v>
+        <v>0.3665619620436723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07007712962757862</v>
+        <v>0.3310066277964421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04804051964068667</v>
+        <v>0.3024314101598855</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.056931533120653</v>
+        <v>0.8159907033325127</v>
       </c>
       <c r="C3" t="n">
-        <v>1.037495971913898</v>
+        <v>0.1239573391420824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2117383779385947</v>
+        <v>0.06005195752540508</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5110942192373414</v>
+        <v>0.6176363653528758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5605195705955309</v>
+        <v>0.2313360234188723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1234551435070512</v>
+        <v>0.151027611228252</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05009588848694841</v>
+        <v>0.3666722876133165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06157527094136338</v>
+        <v>0.3271599351122969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03752182381499176</v>
+        <v>0.3061677772743863</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3776818186591233</v>
+        <v>0.5317997222877446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3587672878217122</v>
+        <v>0.2542846532304096</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01167724327689815</v>
+        <v>0.2139156244818458</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.07504419709063577</v>
+        <v>0.4467895821357463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6993016475281654</v>
+        <v>0.4310736076930041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.677937472335043</v>
+        <v>0.1221368101712498</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2687190246912652</v>
+        <v>0.5827210924500723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8288194826422008</v>
+        <v>0.3128016376978889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4412776128503513</v>
+        <v>0.1044772698520387</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.07645367129299727</v>
+        <v>0.3176345080316466</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01984100808995295</v>
+        <v>0.3543537999009625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0559952907738088</v>
+        <v>0.3280116920673907</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.650961436931548</v>
+        <v>0.5607851325265245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2817276605187898</v>
+        <v>0.1937791380802249</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1528170913495901</v>
+        <v>0.2454357293932505</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1979209025856622</v>
+        <v>0.5632243554734155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8620934211190098</v>
+        <v>0.325977378027314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2925096459454417</v>
+        <v>0.1107982664992703</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.03564610450462204</v>
+        <v>0.3224974879310534</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02218508137305058</v>
+        <v>0.3452738212827209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02825852326763782</v>
+        <v>0.3322286907862257</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05145439868492315</v>
+        <v>0.3872287032125544</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1261314847955247</v>
+        <v>0.3294144456197277</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06673004497257959</v>
+        <v>0.2833568511677177</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1411558402034314</v>
+        <v>0.3055974242161441</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02148697862777382</v>
+        <v>0.3737843062269024</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1187327205299297</v>
+        <v>0.3206182695569534</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3163667813579407</v>
+        <v>0.2719406473002616</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01706333999932265</v>
+        <v>0.4281413499980002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2727656819031226</v>
+        <v>0.2999180027017381</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1364481495112473</v>
+        <v>0.4376390348705378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2317482635187086</v>
+        <v>0.312534977786574</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07543260167407682</v>
+        <v>0.2498259873428881</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.5729109762032495</v>
+        <v>0.2808626655999567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7418794504268249</v>
+        <v>0.6028784666889807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.971546540139003</v>
+        <v>0.1162588677110627</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2631574467363899</v>
+        <v>0.3833536922414366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6424480731191919</v>
+        <v>0.465375892511385</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4488548003433961</v>
+        <v>0.1512704152471785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.03595579570055576</v>
+        <v>0.3224251761418365</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02218507601130673</v>
+        <v>0.345383743551605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02856282678511584</v>
+        <v>0.3321910803065586</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4859727217109721</v>
+        <v>0.6451321584795587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7604884196129503</v>
+        <v>0.2590507171439137</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6645724183476119</v>
+        <v>0.09581712437652753</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4997830111374751</v>
+        <v>0.5968121638852981</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4863047066965134</v>
+        <v>0.2301032244676944</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0367361211596879</v>
+        <v>0.1730846116470075</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.05738881411006792</v>
+        <v>0.3256940691401387</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.004866233777276997</v>
+        <v>0.3512738646124777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06233314474087929</v>
+        <v>0.3230320662473832</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6476731730426157</v>
+        <v>0.6462921062344353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.544438456602463</v>
+        <v>0.1995787139725323</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05689844076587416</v>
+        <v>0.1541291797930323</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3305154074385582</v>
+        <v>0.3030357905572222</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1542428622182511</v>
+        <v>0.461970389081492</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4955919658438271</v>
+        <v>0.2349938203612861</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.086202900407998</v>
+        <v>0.1684688836557028</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4930678183405447</v>
+        <v>0.6632543165577848</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7494830350588831</v>
+        <v>0.1682767997865127</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5062360511705674</v>
+        <v>0.5938777610677848</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4728927021216475</v>
+        <v>0.239530396934284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2566965090053175</v>
+        <v>0.1665918419979311</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4951674307045997</v>
+        <v>0.6228247229373263</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6028243284830123</v>
+        <v>0.2343977935545078</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1127351321447098</v>
+        <v>0.142777483508166</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5394072117651419</v>
+        <v>0.615219416842811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.520884836530908</v>
+        <v>0.2225133127146839</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06151129998380173</v>
+        <v>0.1622672704425051</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.354522786905818</v>
+        <v>0.5561198986500651</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4710097859336594</v>
+        <v>0.2675819072619487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1248953308332026</v>
+        <v>0.176298194087986</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2957892096408157</v>
+        <v>0.5381518579376183</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4617797314756052</v>
+        <v>0.3012145993036699</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4766957291442387</v>
+        <v>0.1606335427587117</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2661432703810805</v>
+        <v>0.3410886458670608</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2517160797794058</v>
+        <v>0.414729388736453</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1746747512407123</v>
+        <v>0.2441819653964862</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.04251411171958894</v>
+        <v>0.3626031481722953</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1097613927248637</v>
+        <v>0.3560821468615118</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1408651965568925</v>
+        <v>0.2813147049661926</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.01712957670427865</v>
+        <v>0.3889842563404962</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1850125088320744</v>
+        <v>0.3496973371158119</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1227446585049989</v>
+        <v>0.2613184065436918</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3096917666596531</v>
+        <v>0.4998292326644175</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3027408953166869</v>
+        <v>0.2868458421582445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2690806903633269</v>
+        <v>0.2133249251773379</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.06661896576649773</v>
+        <v>0.4638188065951909</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9957812333598961</v>
+        <v>0.4513413209445556</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9371285421241907</v>
+        <v>0.08483987246025337</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4160615745314138</v>
+        <v>0.5517621317541231</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3922392729032769</v>
+        <v>0.2528093407075036</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1360501411481361</v>
+        <v>0.1954285275383732</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.28688320683942</v>
+        <v>0.4984332720034365</v>
       </c>
       <c r="C39" t="n">
-        <v>0.32026198821466</v>
+        <v>0.2789706372032477</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05905851890320113</v>
+        <v>0.2225960907933157</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3156653526211447</v>
+        <v>0.5196671190020038</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3743860004758506</v>
+        <v>0.2745989417407235</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07208071927228824</v>
+        <v>0.205733939257273</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1391569474407944</v>
+        <v>0.3157587543334354</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01320191806186401</v>
+        <v>0.3744776832897181</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1305157028891908</v>
+        <v>0.3097635623768466</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1523569121223168</v>
+        <v>0.4281294488994888</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1884543158778534</v>
+        <v>0.3084877872666875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06961007986419107</v>
+        <v>0.2633827638338235</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2631129293202262</v>
+        <v>0.4962596080510032</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330764762523249</v>
+        <v>0.2858427977196569</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08858001903415819</v>
+        <v>0.2178975942293397</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.3221680728124016</v>
+        <v>0.3640200953851094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7538015427434436</v>
+        <v>0.512773456365893</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7343717608118223</v>
+        <v>0.1232064482489975</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.005537659421722511</v>
+        <v>0.4307295529818351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3663738031088716</v>
+        <v>0.3680538618472192</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2797612355287698</v>
+        <v>0.2012165851709459</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07049959139778764</v>
+        <v>0.4643457328229291</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4117052479509403</v>
+        <v>0.3433306797677801</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2270610695709262</v>
+        <v>0.1923235874092908</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.4445414296018314</v>
+        <v>0.327215394388328</v>
       </c>
       <c r="C47" t="n">
-        <v>1.321059674502064</v>
+        <v>0.5910422320273291</v>
       </c>
       <c r="D47" t="n">
-        <v>1.102866047364635</v>
+        <v>0.081742373584343</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5156511612204489</v>
+        <v>0.2821941575930703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4359871127324266</v>
+        <v>0.5907699533769856</v>
       </c>
       <c r="D48" t="n">
-        <v>1.200852177887256</v>
+        <v>0.1270358890299441</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3896335414343693</v>
+        <v>0.5126487573354008</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2901663536524171</v>
+        <v>0.2561646634185804</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05061314094182642</v>
+        <v>0.2311865792460188</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.5058191595706605</v>
+        <v>0.2870414135807606</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3159009732096861</v>
+        <v>0.4972921557646558</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3952581852335542</v>
+        <v>0.2156664306545837</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6696647683168001</v>
+        <v>0.6495047729017042</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5374885401684444</v>
+        <v>0.2002609684138645</v>
       </c>
       <c r="D51" t="n">
-        <v>0.187363504411585</v>
+        <v>0.1502342586844312</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1204496632745932</v>
+        <v>0.3830482688512474</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2919397241894574</v>
+        <v>0.4076675084556025</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4214269025564177</v>
+        <v>0.2092842226931499</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08016407078049428</v>
+        <v>0.3896531365788321</v>
       </c>
       <c r="C53" t="n">
-        <v>0.114860022377092</v>
+        <v>0.3215582782194437</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04536249316201164</v>
+        <v>0.2887885852017241</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1091929171735991</v>
+        <v>0.3788852821331226</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2487658288635829</v>
+        <v>0.386644532008662</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2476058266552921</v>
+        <v>0.2344701858582153</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.7719003847462932</v>
+        <v>0.222518424781356</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7737465463058082</v>
+        <v>0.6785594764289041</v>
       </c>
       <c r="D55" t="n">
-        <v>1.256613957848351</v>
+        <v>0.09892209878973983</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.04427221827391947</v>
+        <v>0.3506136715976699</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06936029175501088</v>
+        <v>0.3547154821128705</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1241007160529115</v>
+        <v>0.2946708462894593</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.6173236337988941</v>
+        <v>0.2641368895657322</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4278941807584344</v>
+        <v>0.5571263008167013</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6167191291400308</v>
+        <v>0.1787368096175665</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.07280664918546946</v>
+        <v>0.3911997622919611</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2622878169628572</v>
+        <v>0.378436045398705</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2480320319001551</v>
+        <v>0.2303641923093337</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2175020024706797</v>
+        <v>0.5079593954345585</v>
       </c>
       <c r="C59" t="n">
-        <v>0.420733274947349</v>
+        <v>0.2976875917214634</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0929852912811841</v>
+        <v>0.1943530128439784</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7824068741398768</v>
+        <v>0.7261105729806162</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7787020151544755</v>
+        <v>0.1693891890652876</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03221356226549357</v>
+        <v>0.104500237954096</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6234482612922825</v>
+        <v>0.631358184917689</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5089110776756168</v>
+        <v>0.207026123888593</v>
       </c>
       <c r="D61" t="n">
-        <v>0.105669633451384</v>
+        <v>0.1616156911937176</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.126378118694023</v>
+        <v>0.7875640235172623</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7498732550555138</v>
+        <v>0.1195852932182349</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3429701536594595</v>
+        <v>0.09285068326450276</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.05358167848414942</v>
+        <v>0.3251838292073044</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.008777743832169381</v>
+        <v>0.3500973124949762</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05776163206908902</v>
+        <v>0.3247188582977192</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3914424619130358</v>
+        <v>0.04885976498056348</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.15556606509628</v>
+        <v>0.1549157827402582</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.593743408386305</v>
+        <v>0.7962244522791784</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.8783784408454253</v>
+        <v>0.04765870270035278</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.183426997414011</v>
+        <v>0.3373453126429199</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.6156091728077856</v>
+        <v>0.6149959846567273</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.9480791300398541</v>
+        <v>0.04822637009738422</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.000109569369714</v>
+        <v>0.2613040505641535</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.9995732168112061</v>
+        <v>0.6904695793384623</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.9480791300398541</v>
+        <v>0.04822637009738422</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.000109569369714</v>
+        <v>0.2613040505641535</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.9995732168112061</v>
+        <v>0.6904695793384623</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.3224975499959604</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.022185084278333</v>
+        <v>0.3452737360302341</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02825834744326445</v>
+        <v>0.3322287139738053</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.7740834869067617</v>
+        <v>0.05764482149377027</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.9727634892593673</v>
+        <v>0.2634495587549275</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.9622920089201988</v>
+        <v>0.6789056197513024</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9261100384534258</v>
+        <v>0.05967400094864425</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.9253831344994601</v>
+        <v>0.3556046041481831</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.5244152468127957</v>
+        <v>0.5847213949031728</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.8162677286770609</v>
+        <v>0.04574427157668862</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.035098894719045</v>
+        <v>0.1884989344522076</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.422540582944683</v>
+        <v>0.7657567939711039</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.797627178393535</v>
+        <v>0.07815654480561206</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.220572945659058</v>
+        <v>0.5984545651402671</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6301118447304769</v>
+        <v>0.323388890054121</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.7631472632466895</v>
+        <v>0.07947253775199122</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.818503350126416</v>
+        <v>0.3812445652943142</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.3601114350077197</v>
+        <v>0.5392828969536946</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7874055937559036</v>
+        <v>0.09092801997315463</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.7806468124332079</v>
+        <v>0.5234898107360249</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3082686044523841</v>
+        <v>0.3855821692908204</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9442141372536207</v>
+        <v>0.06148791941797641</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.343992947435141</v>
+        <v>0.589868559083272</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5108796560835351</v>
+        <v>0.3486435214987516</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.292224393238427</v>
+        <v>0.05121170271874558</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.9647424621118545</v>
+        <v>0.7264365441398132</v>
       </c>
       <c r="D76" t="n">
-        <v>1.140174296375328</v>
+        <v>0.222351753141441</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.3714729532465756</v>
+        <v>0.06228196550311314</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.375534138419444</v>
+        <v>0.2815030912170292</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.7707131217640603</v>
+        <v>0.6562149432798579</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5800191733107711</v>
+        <v>0.1166467218686891</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.5996106950567056</v>
+        <v>0.3504366931097544</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4317117570297549</v>
+        <v>0.5329165850215564</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.632312385529426</v>
+        <v>0.07476829892166105</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.9010319875442683</v>
+        <v>0.3067681546721078</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.698597229972974</v>
+        <v>0.6184635464062311</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8442906384877128</v>
+        <v>0.08490100038229637</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7375543332679981</v>
+        <v>0.4505304207620379</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.05164701328154361</v>
+        <v>0.4645685788556659</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.2086447747185217</v>
+        <v>0.09750356918659443</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.7684544210180406</v>
+        <v>0.1670437704276448</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.449574286947665</v>
+        <v>0.7354526603857608</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7489186402829329</v>
+        <v>0.09585852059752603</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.7695285386980488</v>
+        <v>0.5279865405856592</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3507233910465268</v>
+        <v>0.3761549388168147</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.419931896844288</v>
+        <v>0.06595850118107549</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.273048646885854</v>
+        <v>0.2998039126495005</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.6867320851825519</v>
+        <v>0.6342375861694242</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.4665840722338588</v>
+        <v>0.115446105167043</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.9064544531508142</v>
+        <v>0.5114867844564855</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4142409565333313</v>
+        <v>0.3730671103764714</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.277858714793897</v>
+        <v>0.1283621054290314</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.7228397699587428</v>
+        <v>0.3578071314309762</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.2608261422629752</v>
+        <v>0.5138307631399922</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0365936036098711</v>
+        <v>0.3202169119143526</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.03090546850832652</v>
+        <v>0.3440309693356762</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02008892342876312</v>
+        <v>0.3357521187499712</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03016664153941685</v>
+        <v>0.08745193935160595</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.8694357895453584</v>
+        <v>0.1369293321113236</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.611258076420844</v>
+        <v>0.7756187285370705</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.7042725184852011</v>
+        <v>0.2161813357947437</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1753814177995889</v>
+        <v>0.6049240447556049</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9992481943805296</v>
+        <v>0.1788946194496512</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.45714691214373</v>
+        <v>0.05849838384570256</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.4886059611821346</v>
+        <v>0.7741846154612858</v>
       </c>
       <c r="D89" t="n">
-        <v>1.47399811719393</v>
+        <v>0.1673170006930118</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.3858180826528884</v>
+        <v>0.1435165015682743</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.5664826171634197</v>
+        <v>0.3855006626779301</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1458510345013347</v>
+        <v>0.4709828357537954</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.9480791300398541</v>
+        <v>0.04822637009738422</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.000109569369714</v>
+        <v>0.2613040505641535</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.9995732168112061</v>
+        <v>0.6904695793384623</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1143182253634272</v>
+        <v>0.2626885673055327</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1789048275081103</v>
+        <v>0.3514026122815427</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.05268263916796428</v>
+        <v>0.3859088204129246</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.34556728811259</v>
+        <v>0.03888732548940543</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.14693632508579</v>
+        <v>0.5596294985566351</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2839563420818215</v>
+        <v>0.4014831759539597</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3905814131956771</v>
+        <v>0.1121761900587547</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.14806161919603</v>
+        <v>0.5040539476640963</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400772206868101</v>
+        <v>0.383769862277149</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.183291629057257</v>
+        <v>0.05527261496255052</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.9626073677468749</v>
+        <v>0.6282367083569088</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6464119621927819</v>
+        <v>0.3164906766805404</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.4378318966981384</v>
+        <v>0.08633484174141964</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.9671669226703125</v>
+        <v>0.3335107795713487</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5001351512902893</v>
+        <v>0.5801543786872315</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.3224956411138207</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.02219319435179012</v>
+        <v>0.3452722583860759</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02824981718960423</v>
+        <v>0.3322321005001032</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.9276333304142603</v>
+        <v>0.04426834291123794</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.102377876568306</v>
+        <v>0.2772581241083115</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.91642010349104</v>
+        <v>0.6784735329804505</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0282583477659979</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.02218508397140094</v>
+        <v>0.3452737360861425</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02825834776599779</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1513898807248732</v>
+        <v>0.3004669632341733</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.03373606544279376</v>
+        <v>0.3797267815834083</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1513484685853692</v>
+        <v>0.3198062551824183</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.6164192393285267</v>
+        <v>0.2125921798713854</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.01849038944491451</v>
+        <v>0.5356770004352527</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6406275966023551</v>
+        <v>0.2517308196933618</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.4556587749561006</v>
+        <v>0.2303862854652807</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.08929175868505923</v>
+        <v>0.4677657078355643</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3728690095990704</v>
+        <v>0.3018480066991551</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.02923000232100235</v>
+        <v>0.3244983517449312</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02038949364429142</v>
+        <v>0.3429006331012119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02089510513315629</v>
+        <v>0.3326010151538568</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.3224972856053623</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.02218620758830299</v>
+        <v>0.3452735313440192</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02825716579322332</v>
+        <v>0.3322291830506184</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.5372005849045873</v>
+        <v>0.07966232068360068</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.8821649414628502</v>
+        <v>0.2814005947019909</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.8060008904083332</v>
+        <v>0.638937084614408</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.223195326273959</v>
+        <v>0.2335217611060885</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2257588811877584</v>
+        <v>0.3679218578288701</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.06711359830071667</v>
+        <v>0.3985563810650413</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.05564867869981495</v>
+        <v>0.2979236747236597</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.09350444461209866</v>
+        <v>0.3414526724350478</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0345790652946273</v>
+        <v>0.3606236528412924</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2539331277065947</v>
+        <v>0.2863069928897966</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.01668901873950127</v>
+        <v>0.4144673404493852</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2781803422999771</v>
+        <v>0.2992256666608185</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.03543711292207544</v>
+        <v>0.3217702492068198</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.02549953081153371</v>
+        <v>0.3445647820719445</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02435023714542728</v>
+        <v>0.3336649687212354</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.03551312995825393</v>
+        <v>0.3182629474027219</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.04049348256015582</v>
+        <v>0.3414082017066947</v>
       </c>
       <c r="D112" t="n">
-        <v>0.005511070575596241</v>
+        <v>0.3403288508905834</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1233446644839765</v>
+        <v>0.2485798252625702</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2189562048777004</v>
+        <v>0.3438329238334989</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1301761796362523</v>
+        <v>0.4075872509039308</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.6548213629792792</v>
+        <v>0.1410239149934485</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.4308237422771979</v>
+        <v>0.4942369106901572</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3013839812344717</v>
+        <v>0.3647391743163942</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.011157730905224</v>
+        <v>0.02386500386016104</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.33486626428268</v>
+        <v>0.1526229304887324</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.701332835028462</v>
+        <v>0.8235120656511064</v>
       </c>
       <c r="E115" t="n">
         <v>3</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.7221877079122582</v>
+        <v>0.1490344837188656</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.3255812572815778</v>
+        <v>0.5951715564384844</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8670744087483893</v>
+        <v>0.25579395984265</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.6690880276476701</v>
+        <v>0.1342360082136222</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.5253915934932393</v>
+        <v>0.619927436517988</v>
       </c>
       <c r="D117" t="n">
-        <v>1.00835109977107</v>
+        <v>0.2458365552683903</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.002145245540105</v>
+        <v>0.08250858908932852</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.6653494547774436</v>
+        <v>0.554689487717569</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3926145293281588</v>
+        <v>0.3628019231931024</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.388332157447503</v>
+        <v>0.04758777184918403</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.8637455506139702</v>
+        <v>0.6819478242287392</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8716699826340378</v>
+        <v>0.2704644039220767</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.555786664586875</v>
+        <v>0.259750741984535</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2905909103593359</v>
+        <v>0.5975256292703101</v>
       </c>
       <c r="D120" t="n">
-        <v>1.230427272947774</v>
+        <v>0.142723628745155</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1026468655654227</v>
+        <v>0.1816527819286544</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.4364541470074919</v>
+        <v>0.2180798716546855</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.018220427120503</v>
+        <v>0.6002673464166601</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.037778298100218</v>
+        <v>0.05796630803186884</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.2847344523321</v>
+        <v>0.6278522982943786</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6674465049487563</v>
+        <v>0.3141813936737526</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4309180860834985</v>
+        <v>0.08616007250176187</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.100934384847962</v>
+        <v>0.3783574533158602</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2779804389901234</v>
+        <v>0.5354824741823775</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.7541930847661215</v>
+        <v>0.06077359338518357</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.009203387825422</v>
+        <v>0.3166384946025059</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.6838757445297519</v>
+        <v>0.6225879120123106</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.4487391942348169</v>
+        <v>0.221096185643275</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1546773051417814</v>
+        <v>0.5617427077106351</v>
       </c>
       <c r="D125" t="n">
-        <v>1.09116998988607</v>
+        <v>0.2171611066460896</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02730738730741811</v>
+        <v>0.4278533214200219</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3124757692270793</v>
+        <v>0.3773459193802635</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5211380950866229</v>
+        <v>0.1948007591997147</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.06266681386303238</v>
+        <v>0.3122649621988912</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04327905046026852</v>
+        <v>0.3462593285043312</v>
       </c>
       <c r="D127" t="n">
-        <v>0.001333144687041085</v>
+        <v>0.3414757092967776</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1262746928302394</v>
+        <v>0.300432903574052</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.04892751321146335</v>
+        <v>0.3701449245990978</v>
       </c>
       <c r="D128" t="n">
-        <v>0.108079427605866</v>
+        <v>0.32942217182685</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.3781255212246818</v>
+        <v>0.1563604472908161</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.4855941517749042</v>
+        <v>0.3656552106393328</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.2372999749179593</v>
+        <v>0.4779843420698508</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.04189601048513732</v>
+        <v>0.3159843022830037</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.04400375725685639</v>
+        <v>0.3430924841923422</v>
       </c>
       <c r="D130" t="n">
-        <v>0.008737831717023525</v>
+        <v>0.340923213524654</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1107558007511779</v>
+        <v>0.2472365637873108</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.2285954669810549</v>
+        <v>0.3399244090161664</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1473091120210406</v>
+        <v>0.4128390271965227</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.8782993423128675</v>
+        <v>0.09421882527190061</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.6615619239364486</v>
+        <v>0.5702952534068007</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5215924946708312</v>
+        <v>0.3354859213212988</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.6609349366042744</v>
+        <v>0.1096004447509659</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.7651451933879286</v>
+        <v>0.5745414181931369</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6505589545587973</v>
+        <v>0.3158581370558972</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.9802693186772706</v>
+        <v>0.05969638517168005</v>
       </c>
       <c r="C134" t="n">
-        <v>-1.246545847511725</v>
+        <v>0.5828560321207383</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4688667474671398</v>
+        <v>0.3574475827075817</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.03968560187921</v>
+        <v>0.0691000436133907</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.8554917101537115</v>
+        <v>0.6023910960365049</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5803714744600469</v>
+        <v>0.3285088603501041</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.5536398147707582</v>
+        <v>0.08801858460538435</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.7850772949492859</v>
+        <v>0.2740758009916548</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.8461141394152701</v>
+        <v>0.637905614402961</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.9102752469802047</v>
+        <v>0.162851051952217</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01708159286761445</v>
+        <v>0.6386735859455198</v>
       </c>
       <c r="D137" t="n">
-        <v>1.009415922658686</v>
+        <v>0.1984753621022632</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.2065447308985574</v>
+        <v>0.1581365990611236</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.5414720215458944</v>
+        <v>0.3146600239154338</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.4362271490242777</v>
+        <v>0.5272033770234426</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.05840972537069632</v>
+        <v>0.3072155418192426</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.06373594211692932</v>
+        <v>0.3482021327739968</v>
       </c>
       <c r="D139" t="n">
-        <v>0.02427627791120916</v>
+        <v>0.3445823254067605</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.149381768056073</v>
+        <v>0.0563997606853535</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.9974727922580373</v>
+        <v>0.6276770201412235</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6504390709222624</v>
+        <v>0.3159232191734229</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-2.048294549233006</v>
+        <v>0.01238060589451368</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.552414519331923</v>
+        <v>0.5636588852408004</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2260457524354845</v>
+        <v>0.4239605088646856</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17483792152315</v>
+        <v>0.2125531311541191</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.5463469660161792</v>
+        <v>0.3594592001210153</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2171542757810667</v>
+        <v>0.4279876687248657</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.4690493190683165</v>
+        <v>0.2888007529492861</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2914672729924355</v>
+        <v>0.5111303751251699</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5889703439568365</v>
+        <v>0.2000688719255439</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.6951586229735098</v>
+        <v>0.1411172429678627</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.4065755687044536</v>
+        <v>0.5455805750383425</v>
       </c>
       <c r="D144" t="n">
-        <v>0.564166570300507</v>
+        <v>0.3133021819937946</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.5289514421704653</v>
+        <v>0.1325984353498515</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.6168112690240487</v>
+        <v>0.5108282752254784</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4285854323327299</v>
+        <v>0.35657328942467</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.5685131765114766</v>
+        <v>0.1752687028891164</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2860461553985477</v>
+        <v>0.4249356346322207</v>
       </c>
       <c r="D146" t="n">
-        <v>0.001903419799998435</v>
+        <v>0.3997956624786622</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.2488552974815917</v>
+        <v>0.2117847599090042</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.3186280560370315</v>
+        <v>0.4152745533759786</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2054718934761079</v>
+        <v>0.3729406867150173</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.334834412201985</v>
+        <v>0.05792844729655504</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.6896123604742078</v>
+        <v>0.7679960423969271</v>
       </c>
       <c r="D148" t="n">
-        <v>1.445601576840498</v>
+        <v>0.1740755103065176</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.4009746578952854</v>
+        <v>0.1608850062277725</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.4451630505612579</v>
+        <v>0.3552734744335448</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.3039725828774378</v>
+        <v>0.4838415193386829</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1904243278635868</v>
+        <v>0.2920780522098584</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.03916577028663583</v>
+        <v>0.3931434439854353</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2007575334982196</v>
+        <v>0.3147785038047063</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.7684093250913588</v>
+        <v>0.1068026020458615</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.6882359375770901</v>
+        <v>0.621563526731334</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8660687997227993</v>
+        <v>0.2716338712228044</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.3383293662482738</v>
+        <v>0.2415025589255962</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1370374257114847</v>
+        <v>0.4700827007145829</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5400444162619076</v>
+        <v>0.2884147403598209</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.8241573399885485</v>
+        <v>0.06783728172213031</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.009661532345195</v>
+        <v>0.4473677638115146</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.08890233557986967</v>
+        <v>0.4847949544663552</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.475419067780385</v>
+        <v>0.1718722636068682</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.3655682677257068</v>
+        <v>0.4352064380681969</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1127363072723331</v>
+        <v>0.3929212983249348</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D155" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D156" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.03564604000890007</v>
+        <v>0.3224974994251074</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.345273813631362</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02825856569863988</v>
+        <v>0.3322286869435306</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.5960992706203172</v>
+        <v>0.1239767311293505</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.5869911391871736</v>
+        <v>0.4536152969388162</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0894357275301601</v>
+        <v>0.4224079719318333</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.05427698222074327</v>
+        <v>0.2279997429845073</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.3217027788999878</v>
+        <v>0.3134860952905877</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2838573543048752</v>
+        <v>0.4585141617249049</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.1739236568559397</v>
+        <v>0.2531486218201263</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.1824876353100079</v>
+        <v>0.3651837234884547</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.02225160191393149</v>
+        <v>0.3816676546914187</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7261399983187262</v>
+        <v>0.1113546440583273</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.5851484423748898</v>
+        <v>0.4582340767447471</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05013880898491757</v>
+        <v>0.4304112791969257</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5691497753520488</v>
+        <v>0.1844072774095933</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.2421157344989144</v>
+        <v>0.503606292911922</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4718634151882985</v>
+        <v>0.3119864296784846</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D163" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.04480139575877947</v>
+        <v>0.26192912751322</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.2089893803221684</v>
+        <v>0.3277607744207249</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1582869814835072</v>
+        <v>0.4103100980660551</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.03570511293114026</v>
+        <v>0.2999145327168917</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.09694218492503019</v>
+        <v>0.3362215096630538</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.0503340068576178</v>
+        <v>0.3638639576200544</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.1610366523778529</v>
+        <v>0.2926817767115883</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.05516856146154563</v>
+        <v>0.3810450490652044</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1440720494609231</v>
+        <v>0.3262731742232071</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8299285419975272</v>
+        <v>0.09229868493509291</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.718964661176186</v>
+        <v>0.5336237260311955</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3495284814044863</v>
+        <v>0.3740775890337117</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.07530856678732249</v>
+        <v>0.2630216828081969</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1913601562154476</v>
+        <v>0.330985254480574</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1656475666939026</v>
+        <v>0.405993062711229</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.240651591089277</v>
+        <v>0.02793374383173662</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.166794600380655</v>
+        <v>0.1985020510022407</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.390305457097524</v>
+        <v>0.7735642051660224</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.0499153071768891</v>
+        <v>0.3139590302139557</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.04479237370737019</v>
+        <v>0.3460225450745059</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01759420834077163</v>
+        <v>0.3400184247115384</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.03565368498741759</v>
+        <v>0.3224957352121524</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.02218497451577334</v>
+        <v>0.3452765739976764</v>
       </c>
       <c r="D171" t="n">
-        <v>0.02826638017292869</v>
+        <v>0.332227690790171</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.521105118581523</v>
+        <v>0.09576547277831615</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.897280181354439</v>
+        <v>0.4112351682192871</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1361890230644563</v>
+        <v>0.4929993590023967</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.03612018606304097</v>
+        <v>0.3223862964952403</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.02218572005325681</v>
+        <v>0.3454437633688052</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02873597746595514</v>
+        <v>0.3321699401359544</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.05365928543125548</v>
+        <v>0.3110322547592776</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.05391839997441144</v>
+        <v>0.3454489339349277</v>
       </c>
       <c r="D174" t="n">
-        <v>0.01040877659797251</v>
+        <v>0.3435188113057946</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.03624641088537386</v>
+        <v>0.301729032194725</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.09114652147027094</v>
+        <v>0.3369340004415396</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.04386495849882113</v>
+        <v>0.3613369673637353</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.04766151721024004</v>
+        <v>0.2586830019416904</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.2231881617310182</v>
+        <v>0.3224266627226962</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1917527270508556</v>
+        <v>0.4188903353356137</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D177" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.03729006230361623</v>
+        <v>0.3217385460198559</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.02378895300082406</v>
+        <v>0.3455562722126369</v>
       </c>
       <c r="D178" t="n">
-        <v>0.02812940044491709</v>
+        <v>0.3327051817675072</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D179" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.3224975500452286</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.0221850840690247</v>
+        <v>0.3452737360683537</v>
       </c>
       <c r="D180" t="n">
-        <v>0.02825834766330387</v>
+        <v>0.3322287138864179</v>
       </c>
       <c r="E180" t="n">
         <v>6</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.8872589378121439</v>
+        <v>0.100911970419828</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.6568226323976624</v>
+        <v>0.7053028834087268</v>
       </c>
       <c r="D181" t="n">
-        <v>1.340314402500273</v>
+        <v>0.1937851461714451</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.03698336220560115</v>
+        <v>0.2548533349691605</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.2402175949451177</v>
+        <v>0.3198734813598919</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.2023279023238256</v>
+        <v>0.4252731836709475</v>
       </c>
       <c r="E182" t="n">
         <v>6</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.03656547832136751</v>
+        <v>0.3194831598272203</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.03399561816919385</v>
+        <v>0.3434964423620538</v>
       </c>
       <c r="D183" t="n">
-        <v>0.01707178484697081</v>
+        <v>0.337020397810726</v>
       </c>
       <c r="E183" t="n">
         <v>6</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.03564581787946932</v>
+        <v>0.3224883066483674</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.02222436215490109</v>
+        <v>0.345266575786852</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02821701627007124</v>
+        <v>0.3322451175647806</v>
       </c>
       <c r="E184" t="n">
         <v>6</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.03576785627629957</v>
+        <v>0.322543467153207</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.02186968947158267</v>
+        <v>0.3453734224610658</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02870236950105938</v>
+        <v>0.3320831103857269</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.07883711272950107</v>
+        <v>0.2350486890577243</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.2900836968184071</v>
+        <v>0.3258568593037214</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.2137932121350097</v>
+        <v>0.4390944516385542</v>
       </c>
       <c r="E186" t="n">
         <v>6</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.4506206929201033</v>
+        <v>0.2140145254987416</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.1811409602356921</v>
+        <v>0.4656876493736336</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3646226208327035</v>
+        <v>0.3202978251276248</v>
       </c>
       <c r="E187" t="n">
         <v>6</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.1477298539434292</v>
+        <v>0.26585703780541</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.1524536477397116</v>
+        <v>0.3619593874646029</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.007694426197297953</v>
+        <v>0.3721835747299868</v>
       </c>
       <c r="E188" t="n">
         <v>6</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.2549650821931259</v>
+        <v>0.274597272297722</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.06048284258268963</v>
+        <v>0.4047397198779439</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1939593121496469</v>
+        <v>0.3206630078243341</v>
       </c>
       <c r="E189" t="n">
         <v>6</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.6362844942361612</v>
+        <v>0.1290433797346897</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.5329433206025173</v>
+        <v>0.5128508987544852</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3833118616246539</v>
+        <v>0.3581057215108253</v>
       </c>
       <c r="E190" t="n">
         <v>6</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.7265640555385452</v>
+        <v>0.07008967759752253</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.912373410536968</v>
+        <v>0.3287544283564782</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.6117640931668161</v>
+        <v>0.6011558940459991</v>
       </c>
       <c r="E191" t="n">
         <v>6</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.03570030461912784</v>
+        <v>0.3183977757456322</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.03943875622752967</v>
+        <v>0.3421036777700816</v>
       </c>
       <c r="D192" t="n">
-        <v>0.009812335141668509</v>
+        <v>0.3394985464842862</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.0522482830081536</v>
+        <v>0.1491307030378437</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.6278792154266765</v>
+        <v>0.2738941181828901</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.604018384393375</v>
+        <v>0.5769751787792662</v>
       </c>
       <c r="E193" t="n">
         <v>6</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.6134029820459022</v>
+        <v>0.1460723428763795</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.4656388489607005</v>
+        <v>0.5785987037980161</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8171673444314502</v>
+        <v>0.2753289533256045</v>
       </c>
       <c r="E194" t="n">
         <v>6</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.9453668256635871</v>
+        <v>0.0747468672563726</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.7827597331967172</v>
+        <v>0.4721749667629475</v>
       </c>
       <c r="D195" t="n">
-        <v>0.01267662872347714</v>
+        <v>0.4530781659806798</v>
       </c>
       <c r="E195" t="n">
         <v>6</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.090953798638908</v>
+        <v>0.07397658504758739</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.7129961886570535</v>
+        <v>0.6379859143699067</v>
       </c>
       <c r="D196" t="n">
-        <v>0.765456343547673</v>
+        <v>0.2880375005825056</v>
       </c>
       <c r="E196" t="n">
         <v>6</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.536705553068254</v>
+        <v>0.1438462811009718</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.5000105603539262</v>
+        <v>0.4690926869663254</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2269862730070375</v>
+        <v>0.3870610319327025</v>
       </c>
       <c r="E197" t="n">
         <v>6</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.6702634561061974</v>
+        <v>0.1218547851942475</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.618295549123736</v>
+        <v>0.5811263919284479</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7246034964586022</v>
+        <v>0.2970188228773044</v>
       </c>
       <c r="E198" t="n">
         <v>6</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.5161983842866892</v>
+        <v>0.08469722560671349</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.8903644819336618</v>
+        <v>0.3186539942014429</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.6008879892318054</v>
+        <v>0.5966487801918436</v>
       </c>
       <c r="E199" t="n">
         <v>6</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.7908777416086618</v>
+        <v>0.1004421166498393</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.6862277049165688</v>
+        <v>0.5603061678232196</v>
       </c>
       <c r="D200" t="n">
-        <v>0.510131850765712</v>
+        <v>0.3392517155269413</v>
       </c>
       <c r="E200" t="n">
         <v>6</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.3224975405767223</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.02218512429621134</v>
+        <v>0.3452737287400916</v>
       </c>
       <c r="D201" t="n">
-        <v>0.02825830535943996</v>
+        <v>0.3322287306831861</v>
       </c>
       <c r="E201" t="n">
         <v>6</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.517187510905297</v>
+        <v>0.08384005681830796</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.237627313257628</v>
+        <v>0.4413053612756352</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.01551090305657075</v>
+        <v>0.4748545819060568</v>
       </c>
       <c r="E202" t="n">
         <v>6</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.4625616974754769</v>
+        <v>0.1032372832153217</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.7634856577881142</v>
+        <v>0.332925415109336</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.4945189962280968</v>
+        <v>0.5638373016753422</v>
       </c>
       <c r="E203" t="n">
         <v>6</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.0217215437737772</v>
+        <v>0.3299823842782875</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.004599662198132997</v>
+        <v>0.3433690911980242</v>
       </c>
       <c r="D204" t="n">
-        <v>0.03221114373626856</v>
+        <v>0.3266485245236883</v>
       </c>
       <c r="E204" t="n">
         <v>7</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E205" t="n">
         <v>7</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D206" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E206" t="n">
         <v>7</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D207" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E207" t="n">
         <v>7</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D208" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E208" t="n">
         <v>7</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.322497550068206</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.02218508397140084</v>
+        <v>0.3452737360861424</v>
       </c>
       <c r="D209" t="n">
-        <v>0.02825834776599789</v>
+        <v>0.3322287138456516</v>
       </c>
       <c r="E209" t="n">
         <v>7</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.03564582377708749</v>
+        <v>0.3224825360118001</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.02224887223623915</v>
+        <v>0.3452621121771938</v>
       </c>
       <c r="D210" t="n">
-        <v>0.02819124177342093</v>
+        <v>0.3322553518110061</v>
       </c>
       <c r="E210" t="n">
         <v>7</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.03603558457769034</v>
+        <v>0.3224062551147303</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.02218512432660713</v>
+        <v>0.3454135240675784</v>
       </c>
       <c r="D211" t="n">
-        <v>0.02865130033363002</v>
+        <v>0.3321802208176912</v>
       </c>
       <c r="E211" t="n">
         <v>7</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.03564582372440957</v>
+        <v>0.3224975477391596</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.02218509386649538</v>
+        <v>0.3452737342834291</v>
       </c>
       <c r="D212" t="n">
-        <v>0.02825833735934961</v>
+        <v>0.3322287179774113</v>
       </c>
       <c r="E212" t="n">
         <v>7</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4091106814020865</v>
+        <v>0.3343663099408017</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.2094838232838499</v>
+        <v>0.3015860863354559</v>
       </c>
       <c r="D213" t="n">
-        <v>0.325681424299294</v>
+        <v>0.3640476037237424</v>
       </c>
       <c r="E213" t="n">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.6834759222672091</v>
+        <v>0.1596048243536566</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.2944069388248453</v>
+        <v>0.538563655166005</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5675142798931205</v>
+        <v>0.3018315204803386</v>
       </c>
       <c r="E214" t="n">
         <v>8</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.8822664892887434</v>
+        <v>0.1912672098484758</v>
       </c>
       <c r="C215" t="n">
-        <v>0.4923967036603808</v>
+        <v>0.6947329496378917</v>
       </c>
       <c r="D215" t="n">
-        <v>1.327889307727883</v>
+        <v>0.1139998405136328</v>
       </c>
       <c r="E215" t="n">
         <v>8</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.2387677892948367</v>
+        <v>0.3225725325121515</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1316720030566209</v>
+        <v>0.5016397896045465</v>
       </c>
       <c r="D216" t="n">
-        <v>1.173390271411201</v>
+        <v>0.1757876778833022</v>
       </c>
       <c r="E216" t="n">
         <v>8</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.2378948722054091</v>
+        <v>0.5557091364942521</v>
       </c>
       <c r="C217" t="n">
-        <v>0.6640138400546725</v>
+        <v>0.3130723058209346</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3475934526865115</v>
+        <v>0.1312185576848132</v>
       </c>
       <c r="E217" t="n">
         <v>8</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1565406127877643</v>
+        <v>0.4701495774571055</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3326805817401765</v>
+        <v>0.3554922054108611</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7382033699824321</v>
+        <v>0.1743582171320337</v>
       </c>
       <c r="E218" t="n">
         <v>8</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5422520869677879</v>
+        <v>0.6488187323982358</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6730930022056874</v>
+        <v>0.2425890669826372</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6235977429925814</v>
+        <v>0.1085922006191268</v>
       </c>
       <c r="E219" t="n">
         <v>8</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.7140582408280152</v>
+        <v>0.7213213330869339</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8582184366484997</v>
+        <v>0.1990829604917278</v>
       </c>
       <c r="D220" t="n">
-        <v>0.588493275828341</v>
+        <v>0.07959570642133862</v>
       </c>
       <c r="E220" t="n">
         <v>8</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.9757345340804364</v>
+        <v>0.8278446783252728</v>
       </c>
       <c r="C221" t="n">
-        <v>1.502276410956713</v>
+        <v>0.1357631400424301</v>
       </c>
       <c r="D221" t="n">
-        <v>0.2578512207350349</v>
+        <v>0.03639218163229724</v>
       </c>
       <c r="E221" t="n">
         <v>8</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5120315189292818</v>
+        <v>0.6545624023700718</v>
       </c>
       <c r="C222" t="n">
-        <v>0.7716461555687109</v>
+        <v>0.2535551556297597</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7148033167843773</v>
+        <v>0.09188244200016869</v>
       </c>
       <c r="E222" t="n">
         <v>8</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.2223678796690386</v>
+        <v>0.4071707202105399</v>
       </c>
       <c r="C223" t="n">
-        <v>1.322142623321292</v>
+        <v>0.5193765595572789</v>
       </c>
       <c r="D223" t="n">
-        <v>1.088826678381101</v>
+        <v>0.07345272023218125</v>
       </c>
       <c r="E223" t="n">
         <v>8</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.006884689561197</v>
+        <v>0.7868107118562562</v>
       </c>
       <c r="C224" t="n">
-        <v>0.8468734754759851</v>
+        <v>0.1229924095051309</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.2130624358196682</v>
+        <v>0.09019687863861289</v>
       </c>
       <c r="E224" t="n">
         <v>8</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.295172662591449</v>
+        <v>0.8883265187071149</v>
       </c>
       <c r="C225" t="n">
-        <v>1.601125272951638</v>
+        <v>0.08792387886323913</v>
       </c>
       <c r="D225" t="n">
-        <v>0.3534306411794754</v>
+        <v>0.02374960242964573</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8923251943790644</v>
+        <v>0.7682541091648297</v>
       </c>
       <c r="C226" t="n">
-        <v>0.8927005785952711</v>
+        <v>0.1519968842950526</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1937692916871371</v>
+        <v>0.07974900654011767</v>
       </c>
       <c r="E226" t="n">
         <v>8</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.2745722751715025</v>
+        <v>0.6072646884809121</v>
       </c>
       <c r="C227" t="n">
-        <v>1.776934294492168</v>
+        <v>0.3488816293911007</v>
       </c>
       <c r="D227" t="n">
-        <v>1.142633152135144</v>
+        <v>0.0438536821279869</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.462488449468</v>
+        <v>0.8727170589304212</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9824863831289989</v>
+        <v>0.07612037616686618</v>
       </c>
       <c r="D228" t="n">
-        <v>0.6032802834793769</v>
+        <v>0.05116256490271261</v>
       </c>
       <c r="E228" t="n">
         <v>8</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.626817602723352</v>
+        <v>0.7052375275895658</v>
       </c>
       <c r="C229" t="n">
-        <v>0.8046727290407605</v>
+        <v>0.1785265470985064</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.5081488948758112</v>
+        <v>0.1162359253119277</v>
       </c>
       <c r="E229" t="n">
         <v>8</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.03343166495015598</v>
+        <v>0.3236603206274978</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.01945227319349255</v>
+        <v>0.3449804099248139</v>
       </c>
       <c r="D230" t="n">
-        <v>0.02892724388512828</v>
+        <v>0.3313592694476882</v>
       </c>
       <c r="E230" t="n">
         <v>8</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.8897609001550886</v>
+        <v>0.6854530609093963</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5155447448646266</v>
+        <v>0.1568410700080898</v>
       </c>
       <c r="D231" t="n">
-        <v>0.06001036519863526</v>
+        <v>0.157705869082514</v>
       </c>
       <c r="E231" t="n">
         <v>8</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.2296311071021531</v>
+        <v>0.5812748707945634</v>
       </c>
       <c r="C232" t="n">
-        <v>1.125116409449173</v>
+        <v>0.3517561872280675</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9136574263938966</v>
+        <v>0.066968941977369</v>
       </c>
       <c r="E232" t="n">
         <v>8</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1469549332174726</v>
+        <v>0.4777376507096605</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3301958574565427</v>
+        <v>0.3818939212626446</v>
       </c>
       <c r="D233" t="n">
-        <v>1.321415786966135</v>
+        <v>0.1403684280276952</v>
       </c>
       <c r="E233" t="n">
         <v>8</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.2584952481431645</v>
+        <v>0.5671506993532265</v>
       </c>
       <c r="C234" t="n">
-        <v>0.7172324223279595</v>
+        <v>0.3267360037349948</v>
       </c>
       <c r="D234" t="n">
-        <v>0.7172997506124253</v>
+        <v>0.1061132969117787</v>
       </c>
       <c r="E234" t="n">
         <v>8</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.151964635990743</v>
+        <v>0.8402949563240575</v>
       </c>
       <c r="C235" t="n">
-        <v>1.030669903043478</v>
+        <v>0.0960019804007359</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.410100391235337</v>
+        <v>0.06370306327520645</v>
       </c>
       <c r="E235" t="n">
         <v>8</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.4574252054123525</v>
+        <v>0.3418089426834278</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5653680406526413</v>
+        <v>0.4505766809107054</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.03713611328545474</v>
+        <v>0.2076143764058668</v>
       </c>
       <c r="E236" t="n">
         <v>8</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.9377200537452611</v>
+        <v>0.2126023910679548</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5111051627862037</v>
+        <v>0.5818134085995162</v>
       </c>
       <c r="D237" t="n">
-        <v>0.3304161215219973</v>
+        <v>0.2055842003325287</v>
       </c>
       <c r="E237" t="n">
         <v>8</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.05838303806331357</v>
+        <v>0.1497390587853127</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.5835338089153809</v>
+        <v>0.1759006366782238</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.257455125459325</v>
+        <v>0.6743603045364638</v>
       </c>
       <c r="E238" t="n">
         <v>8</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.125048041175651</v>
+        <v>0.8341416208561733</v>
       </c>
       <c r="C239" t="n">
-        <v>1.049378466767891</v>
+        <v>0.1052872049250096</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.07428478536860023</v>
+        <v>0.06057117421881728</v>
       </c>
       <c r="E239" t="n">
         <v>8</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.452361046319122</v>
+        <v>0.8291203707253471</v>
       </c>
       <c r="C240" t="n">
-        <v>0.742560663300851</v>
+        <v>0.08265744127297049</v>
       </c>
       <c r="D240" t="n">
-        <v>0.4429005566279694</v>
+        <v>0.08822218800168269</v>
       </c>
       <c r="E240" t="n">
         <v>8</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.03564582372440659</v>
+        <v>0.3224975488864699</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.0221850889921421</v>
+        <v>0.3452737351713721</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02825834248515344</v>
+        <v>0.3322287159421579</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.4995182869113672</v>
+        <v>0.1077668070902643</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.7495076617341182</v>
+        <v>0.3851048516153576</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.2387621560155689</v>
+        <v>0.5071283412943781</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1550539479386537</v>
+        <v>0.160458302016911</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.7276405951963617</v>
+        <v>0.31251845034762</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.2092139768805175</v>
+        <v>0.527023247635469</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.03308705420476427</v>
+        <v>0.156528896995181</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.7705565664365452</v>
+        <v>0.3872630095597409</v>
       </c>
       <c r="D244" t="n">
-        <v>0.09665515423404243</v>
+        <v>0.4562080934450778</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.929742371670832</v>
+        <v>0.02017716017782467</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.202478870269114</v>
+        <v>0.8371767892586996</v>
       </c>
       <c r="D245" t="n">
-        <v>1.690051330444958</v>
+        <v>0.1426460505634759</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.03563380721196407</v>
+        <v>0.3225037148830474</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.02217089772627927</v>
+        <v>0.3452719482357421</v>
       </c>
       <c r="D246" t="n">
-        <v>0.02826071731490045</v>
+        <v>0.3322243368812105</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.6196741170603769</v>
+        <v>0.1350810555537068</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.5013265322137073</v>
+        <v>0.4907404140694532</v>
       </c>
       <c r="D247" t="n">
-        <v>0.2886893830428623</v>
+        <v>0.3741785303768399</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.737717786460866</v>
+        <v>0.01815559306665047</v>
       </c>
       <c r="C248" t="n">
-        <v>-1.376591884333733</v>
+        <v>0.4336336686573369</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.2826226803972832</v>
+        <v>0.5482107382760123</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.5944916806840438</v>
+        <v>0.1092846523318253</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.66037207377959</v>
+        <v>0.3813236952550296</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.2867313767022541</v>
+        <v>0.5093916524131452</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.05603639548529175</v>
+        <v>0.1203625774452945</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.184266505696598</v>
+        <v>0.3885542403668567</v>
       </c>
       <c r="D250" t="n">
-        <v>0.01267242704192473</v>
+        <v>0.4910831821878487</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.04203231365766035</v>
+        <v>0.1597320242173887</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.6781464373973036</v>
+        <v>0.321060065552347</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.238053498281965</v>
+        <v>0.5192079102302641</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.03565363008632889</v>
+        <v>0.3224957222908914</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.02218508396965469</v>
+        <v>0.3452765344492373</v>
       </c>
       <c r="D252" t="n">
-        <v>0.02826621026852029</v>
+        <v>0.3322277432598713</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5240685243828552</v>
+        <v>0.1008470468304958</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.8296648704088597</v>
+        <v>0.1137559867968804</v>
       </c>
       <c r="D253" t="n">
-        <v>-1.601443044230489</v>
+        <v>0.7853969663726239</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.05961899061639765</v>
+        <v>0.2057469903566784</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.4675533091267781</v>
+        <v>0.3994165394591846</v>
       </c>
       <c r="D254" t="n">
-        <v>0.255164838365708</v>
+        <v>0.3948364701841367</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.059753755762349</v>
+        <v>0.0807397415338221</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.6555182782482329</v>
+        <v>0.6653745639184212</v>
       </c>
       <c r="D255" t="n">
-        <v>0.9434894523856545</v>
+        <v>0.2538856945477568</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.03564620581200215</v>
+        <v>0.322497460601066</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.0221850839629712</v>
+        <v>0.3452738730956644</v>
       </c>
       <c r="D256" t="n">
-        <v>0.02825873289017126</v>
+        <v>0.3322286663032696</v>
       </c>
       <c r="E256" t="n">
         <v>9</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.3588476735820578</v>
+        <v>0.1306364994240399</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.6170617015703693</v>
+        <v>0.3191000960094214</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.5070062574363486</v>
+        <v>0.550263404566539</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.9088776610399355</v>
+        <v>0.1098162823795041</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.4896875010348933</v>
+        <v>0.7333814947976995</v>
       </c>
       <c r="D258" t="n">
-        <v>1.622029602518182</v>
+        <v>0.1568022228227962</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.2656386423277063</v>
+        <v>0.1076695255263172</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.7493175225006068</v>
+        <v>0.2415660311188973</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9364889078838715</v>
+        <v>0.6507644433547857</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.2017061425372532</v>
+        <v>0.1419267502043159</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.661975126850631</v>
+        <v>0.1884040129561345</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.062819029462877</v>
+        <v>0.6696692368395494</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.3142728434741061</v>
+        <v>0.2037333247383406</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.2975605175766141</v>
+        <v>0.3532145574293481</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.2422556125471072</v>
+        <v>0.4430521178323113</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.2957232345089607</v>
+        <v>0.3252728290773181</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2247788388076248</v>
+        <v>0.4449934421317474</v>
       </c>
       <c r="D262" t="n">
-        <v>0.393041246066023</v>
+        <v>0.2297337287909344</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.1313347375535264</v>
+        <v>0.174536220699696</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.5620098587491008</v>
+        <v>0.3829988250741351</v>
       </c>
       <c r="D263" t="n">
-        <v>0.03686928238568719</v>
+        <v>0.4424649542261687</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.1724693163123529</v>
+        <v>0.09845542660944383</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.7603769150647128</v>
+        <v>0.1524268882905024</v>
       </c>
       <c r="D264" t="n">
-        <v>-1.562823885705039</v>
+        <v>0.7491176851000538</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.3542423672889555</v>
+        <v>0.1085185646883972</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.7136654748919135</v>
+        <v>0.2539222715603104</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.8939033906929009</v>
+        <v>0.6375591637512925</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.03580716322674674</v>
+        <v>0.4212324089778584</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2599441939705135</v>
+        <v>0.339540919759785</v>
       </c>
       <c r="D266" t="n">
-        <v>0.1250377873665048</v>
+        <v>0.2392266712623566</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.2715668339446943</v>
+        <v>0.233526360178338</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.2297339343138106</v>
+        <v>0.4636934086646479</v>
       </c>
       <c r="D267" t="n">
-        <v>0.5586176858339272</v>
+        <v>0.302780231157014</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.3318584047183591</v>
+        <v>0.1256742083787635</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.7047313693263013</v>
+        <v>0.3597150582217646</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2795324516250817</v>
+        <v>0.5146107333994715</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.5709386557975746</v>
+        <v>0.2696719207476351</v>
       </c>
       <c r="C269" t="n">
-        <v>0.3963911317237451</v>
+        <v>0.5631256322381571</v>
       </c>
       <c r="D269" t="n">
-        <v>0.7790004417878241</v>
+        <v>0.167202447014208</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.3178191329957798</v>
+        <v>0.1003432179813699</v>
       </c>
       <c r="C270" t="n">
-        <v>-1.063677388751073</v>
+        <v>0.3888935287980584</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.1607881145832497</v>
+        <v>0.5107632532205717</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.2347512635623572</v>
+        <v>0.1808056564854844</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.4183047122157287</v>
+        <v>0.3034236219243869</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.5088429622126542</v>
+        <v>0.5157707215901284</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.8951419673021375</v>
+        <v>0.08763755711390236</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.7081451359943324</v>
+        <v>0.5415349897476901</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3624085900801379</v>
+        <v>0.3708274531384076</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.61902346662883</v>
+        <v>0.01961373594022848</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.330420191058912</v>
+        <v>0.3456738684445581</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.6490193312924566</v>
+        <v>0.6347123956152131</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
